--- a/Projects/rogue-like/rogue-like.xlsx
+++ b/Projects/rogue-like/rogue-like.xlsx
@@ -131,7 +131,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -147,7 +147,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
       </patternFill>
     </fill>
   </fills>
@@ -190,8 +190,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Акцент3" xfId="1" builtinId="37"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -477,13 +477,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
-    <col min="2" max="2" width="48.375" customWidth="1"/>
-    <col min="3" max="3" width="3.375" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="5" width="43.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -619,16 +619,16 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="2" width="50.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">

--- a/Projects/rogue-like/rogue-like.xlsx
+++ b/Projects/rogue-like/rogue-like.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="План" sheetId="2" r:id="rId1"/>
+    <sheet name="ИСР" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Мероприятие</t>
   </si>
@@ -107,18 +107,47 @@
   </si>
   <si>
     <t>Команда</t>
+  </si>
+  <si>
+    <t>2D игра</t>
+  </si>
+  <si>
+    <t>Продажа</t>
+  </si>
+  <si>
+    <t>Разработка</t>
+  </si>
+  <si>
+    <t>Собрать команду</t>
+  </si>
+  <si>
+    <t>Назначить лидера</t>
+  </si>
+  <si>
+    <t>Дизайн и геймплей</t>
+  </si>
+  <si>
+    <t>Разработать дисплей</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,8 +166,24 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +193,22 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -175,23 +236,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="40% — акцент5" xfId="4" builtinId="47"/>
     <cellStyle name="Акцент3" xfId="1" builtinId="37"/>
+    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -469,157 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="C1:G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="48.42578125" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="1">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="1">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,4 +721,56 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F6:P13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="L6" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="H9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F13" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Projects/rogue-like/rogue-like.xlsx
+++ b/Projects/rogue-like/rogue-like.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>Мероприятие</t>
   </si>
@@ -127,19 +127,66 @@
     <t>Дизайн и геймплей</t>
   </si>
   <si>
-    <t>Разработать дисплей</t>
+    <t>Разработать игру</t>
+  </si>
+  <si>
+    <t>Протестировать игру</t>
+  </si>
+  <si>
+    <t>Выставить игру на любую площадку</t>
+  </si>
+  <si>
+    <t>Финансы</t>
+  </si>
+  <si>
+    <t>Разработать дизайн</t>
+  </si>
+  <si>
+    <t>по заданным жанрам</t>
+  </si>
+  <si>
+    <t>Разработать геймплей</t>
+  </si>
+  <si>
+    <t>Выделить необходимую сумму</t>
+  </si>
+  <si>
+    <t>для разработки проекта</t>
+  </si>
+  <si>
+    <t>ошибки</t>
+  </si>
+  <si>
+    <t>Исправить возможные</t>
+  </si>
+  <si>
+    <t>погрешность</t>
+  </si>
+  <si>
+    <t>итог</t>
+  </si>
+  <si>
+    <t>затраты</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,8 +229,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,8 +267,13 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -235,31 +296,225 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="13" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="40% — акцент5" xfId="4" builtinId="47"/>
     <cellStyle name="Акцент3" xfId="1" builtinId="37"/>
+    <cellStyle name="Вывод" xfId="5" builtinId="21"/>
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="2" builtinId="26"/>
@@ -275,6 +530,496 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Прямая со стрелкой 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5915025" y="552450"/>
+          <a:ext cx="3086100" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Прямая со стрелкой 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2828925" y="371475"/>
+          <a:ext cx="1438276" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1552575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Прямая со стрелкой 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5553075" y="409575"/>
+          <a:ext cx="2428875" cy="1314450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Прямая со стрелкой 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6010275" y="419100"/>
+          <a:ext cx="4972050" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Прямая со стрелкой 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6019800" y="1714500"/>
+          <a:ext cx="0" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Прямая со стрелкой 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2600325" y="1514475"/>
+          <a:ext cx="9525" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Прямая со стрелкой 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5000625" y="390525"/>
+          <a:ext cx="9525" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1076326</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Прямая со стрелкой 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5076825" y="2305050"/>
+          <a:ext cx="1" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Прямая со стрелкой 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="1504950"/>
+          <a:ext cx="9525" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Прямая со стрелкой 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11144250" y="1524000"/>
+          <a:ext cx="9525" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -543,16 +1288,16 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="50.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -590,13 +1335,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -725,52 +1470,321 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F6:P13"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="L6" s="7" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="H9" s="6" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="B8" s="9">
+        <v>40000</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="D9" s="9">
+        <f>SUM(D12,D15)</f>
+        <v>160000</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="H10" s="26">
+        <f>SUM(H12,H14,H16)</f>
+        <v>2960000</v>
+      </c>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F11" s="9" t="s">
+      <c r="J11" s="27">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J11" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="9">
+        <v>40000</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F13" s="8" t="s">
+      <c r="H12" s="26">
+        <v>2880000</v>
+      </c>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>33</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="9">
+        <v>40000</v>
+      </c>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="9">
+        <v>120000</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="9">
+        <v>40000</v>
+      </c>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E22" s="28">
+        <f>SUM(B8,D9,H10,J11)</f>
+        <v>3202500</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="28">
+        <f>SUM(E26 - E22)</f>
+        <v>960750</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E26" s="29">
+        <f>SUM(E22 + (E22 * 0.3))</f>
+        <v>4163250</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>